--- a/venv/results/SalinasA/Salinas_A_comparison.xlsx
+++ b/venv/results/SalinasA/Salinas_A_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\AI\artificial-intelligence---my-beginning\venv\results\SalinasA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CCCB1-1BDA-4311-997C-8F196A9ECA13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED288379-601B-430A-825D-C09A6DF563E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADCC5D46-33FA-462C-AB1F-50F191CAB149}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ADCC5D46-33FA-462C-AB1F-50F191CAB149}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>Column1</t>
   </si>
@@ -281,7 +281,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -293,15 +293,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,14 +327,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -705,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEDE5EE-0903-41BD-9618-288E80174093}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showFormulas="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A2:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2636,12 +2703,1896 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53E6F6A-C1C9-45EB-BA1D-262BE9350FB4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="66.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.256654525077052</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0.23957836842880301</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0.190459380230148</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0.256654525077052</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.33320285039300601</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0.256654525077052</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0.256654525077052</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0.24047519224411301</v>
+      </c>
+      <c r="J1" s="5">
+        <v>0.17648775182221499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.327402633790977</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.341031216924229</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.26328107983958399</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.327402633790977</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.423421862856597</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.327402633790977</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.327402633790977</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.360266728158253</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.26545656418962499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.42981227234519398</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.38162591256598999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.32515167146486601</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.42981227234519398</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.47546829680214497</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.42981227234519398</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.42981227234519398</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.39574950892689797</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.32953472718677401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.43751751190809701</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.38223676501175602</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.33957313683249302</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.43751751190809701</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.500673067172687</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.43751751190809701</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.43751751190809701</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.39786894919080801</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.330947236168671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.45320818156346299</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.37397619784372599</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.32200049983208301</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.45320818156346299</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.51400170102728204</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.45320818156346299</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.45320818156346299</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.40852206361283699</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.340684820367882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.48683104511067499</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.507952769226511</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.450355744308293</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.48683104511067499</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.64936507469833404</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.48683104511067499</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.48683104511067499</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.543288741990123</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.44010172772233602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.48711123564023501</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.54559277789352401</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.52253900049131996</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.48711123564023501</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.64079730605767204</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.48711123564023501</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.48711123564023501</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.54544594919803402</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.46152897198000298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.53404314934155195</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.58365617392368296</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.56581453349816402</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.53404314934155195</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.68137789961876505</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.53404314934155195</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.53404314934155195</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.58586988985174804</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.49915452311797498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.54230876996357502</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.52239713142498501</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.47153772712181302</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.54230876996357502</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.66368858526554797</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.54230876996357502</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.54230876996357502</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.55135354795003899</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.47288363167096997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.545110675259176</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.50792792104987305</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.43890350787528898</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.545110675259176</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.66706087134057601</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.545110675259176</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.545110675259176</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.55716141312596001</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.46363100071704599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.55365648641075904</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.59534786444790899</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.57315599885865998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.55365648641075904</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.69153233525676205</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.55365648641075904</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.55365648641075904</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.606984014065442</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.52693329418972001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.55449705799943905</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.60044329819207998</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.58022668797861798</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.55449705799943905</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.69517731410578698</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.55449705799943905</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.55449705799943905</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.60613817127363401</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.52162117696210497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.55477724852899901</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.53417293397715204</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.51375843091978901</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.55477724852899901</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.68221924428177105</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.55477724852899901</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.55477724852899901</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.54860011790288099</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.47344695895313399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.55715886803026005</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.53205200966213595</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.50600612367863596</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.55715886803026005</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.68529445842809</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.55715886803026005</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.55715886803026005</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.55327074139545096</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.47675860413939503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.55785934435415996</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.54911757618655599</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.51542112626121805</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.55785934435415996</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.557178938427626</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.55785934435415996</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.55785934435415996</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.54162525133192796</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.52274996599147605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.55827963014850102</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.54395163216564402</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.51425079008412899</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.55827963014850102</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.55796821040012301</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.55827963014850102</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.55827963014850102</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.53989407873466499</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.52257220408178096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.55884001120762095</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.51774523806375705</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.45792074692364199</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.55884001120762095</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.68716194802643904</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.55884001120762095</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.55884001120762095</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.56801513775383805</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.48027295241496898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.56080134491454103</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.53039173919982296</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.47463133273047597</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.56080134491454103</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.69229646470970996</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.56080134491454103</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.56080134491454103</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.57279385661203996</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.48428746070189899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.56136172597366196</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.55260381323517105</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.51893046523687503</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.56136172597366196</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.55954853695381201</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.56136172597366196</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.56136172597366196</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.54410162444335797</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.52558242283501799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.56220229756234197</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52119592024182904</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.454652672339669</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.56220229756234197</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.69941363534385403</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.56220229756234197</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.56220229756234197</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.57755666001652595</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.48269363550023298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.56976744186046502</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.51879556695718498</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.45919500634427601</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.56976744186046502</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.70299047333075204</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.56976744186046502</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.56976744186046502</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.575404488811181</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.48512129554160599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.58195572989632904</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.50000512591417101</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.44613787916158198</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.58195572989632904</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.71714519997210402</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.58195572989632904</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.58195572989632904</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.57003418817759</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.48273572791300801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.605351639114597</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.54184692592776695</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.49076119951135799</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.605351639114597</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.72317328676036496</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.605351639114597</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.605351639114597</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.60347076646137598</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.52628852426261596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.63953488372093004</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.67836717064526797</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.69736381770598199</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.63953488372093004</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.76358836992190904</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.63953488372093004</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.63953488372093004</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.645649333708052</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.58226457783066898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.64878117119641299</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.62434372204495903</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.58406448011035905</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.64878117119641299</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.74228982609132499</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.64878117119641299</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.64878117119641299</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.66165905576224804</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.59397567111621896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.64962174278509299</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.62476108892804505</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.58433896037037902</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.64962174278509299</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.74251677292586704</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.64962174278509299</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.64962174278509299</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.66084124785360199</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.59303340704738505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.65480526758195501</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.63426015780485001</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.59172207430617096</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.65480526758195501</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.74527430753663604</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.65480526758195501</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.65480526758195501</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.67149428451195303</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.60418894329114803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.659288316054917</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.62207644772592896</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.65269784201083103</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.659288316054917</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.58129103070557298</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.659288316054917</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.659288316054917</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.55758840925382402</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.60950588272001605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.68688708321658698</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.68292384126393402</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.65373167828977596</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.68688708321658698</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.79679638272049802</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.68688708321658698</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.68688708321658698</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.70908964407906305</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.63716055425262497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.69921546651723099</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.646922792586891</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.67045532875389502</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.69921546651723099</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.64558658877258002</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.69921546651723099</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.69921546651723099</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.61975420954015903</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.65010218257337704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.71098346875875595</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.70326404840874901</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.71130392864263703</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.71098346875875595</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.78269141395708697</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.71098346875875595</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.71098346875875595</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.71127659027122803</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.68469195091931101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.76702157467077603</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.78656010723993597</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.80990313817460802</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.76702157467077603</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.72473701022803005</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.76702157467077603</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.76702157467077603</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.72417169278701699</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.74773335403519603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.78705519753432296</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.73736763669013095</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.75263701875130795</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.78705519753432296</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.82162710108977199</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.78705519753432296</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.78705519753432296</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.746076986187592</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.74288478263283497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.79013729335948402</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.75395066549082401</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.77008944419370995</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.79013729335948402</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.82425417735620599</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.79013729335948402</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.79013729335948402</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.75359623739125203</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.74979472620388599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.790277388624264</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.76523191275464397</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.78524274420801399</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.790277388624264</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.821867467944983</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.790277388624264</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.790277388624264</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.75767556899111799</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.75745782591075295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.79251891286074505</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.77392437244560397</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.80014623908249105</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.79251891286074505</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.76139360253542698</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.79251891286074505</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.79251891286074505</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.738034026875385</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.75549995410939896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.77499199841271404</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.80092544796234599</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.76164806795582995</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.73880236229658003</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.75614658595511797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.77411527684897996</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.80027305674355698</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.76193776099437005</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.79279910339030502</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.73841069584338304</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.75570958122143095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.79307929391986498</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.77125782505367901</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.789262309043823</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.79307929391986498</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.75970032282856603</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.79307929391986498</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.79307929391986498</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.74228302592162698</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.75884391622714498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.79405996077332497</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.77060147619044095</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.78806216610739499</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.79405996077332497</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.82345611883828795</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.79405996077332497</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.79405996077332497</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.762907240937159</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.76195340020225399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.79756234239282697</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.77518100968449499</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.79633940427363503</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.79756234239282697</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.83261489520522203</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.79756234239282697</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.79756234239282697</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.76532066029393198</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.761908581910128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.79812272345194701</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.78179730717993701</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.80568922470708104</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.79812272345194701</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.76783583429590996</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.79812272345194701</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.79812272345194701</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.74591518289734604</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0.76192652429264895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.79952367609974695</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.78435862659187905</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.80365032022334204</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.79952367609974695</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.82907401221950505</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.79952367609974695</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.79952367609974695</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.77253109445565404</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.77209976019700499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.80008405715886799</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.78582206516765896</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.80698634607908304</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.80008405715886799</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.829289371407541</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.80008405715886799</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.80008405715886799</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.77286212618802497</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.773618951172103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.80582796301485005</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.78719869763376604</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.81282473070973305</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.80582796301485005</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.83672192017996105</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.80582796301485005</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.80582796301485005</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.77281590059377503</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.77227404500630203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.80933034463435105</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.80192590898987304</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.82612961830197196</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.80933034463435105</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.83295375202169397</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.80933034463435105</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.80933034463435105</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.78486763783736702</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.79027881364158103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.81283272625385194</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.79414257514376496</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.82294334068619401</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.81283272625385194</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.83692462467106199</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.81283272625385194</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.81283272625385194</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.78459700328119097</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.78868094679909795</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.85065844774446597</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.874000038656922</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.91907673440754101</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.85065844774446597</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.87344472000959805</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.85065844774446597</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.85065844774446597</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.83129567895128398</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0.84155577754030697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.85416082936396698</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.87698530142094899</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.91837779454840796</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.85416082936396698</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.88107900104414605</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.85416082936396698</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.85416082936396698</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.83557180875108095</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.84035117610219301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.86340711683945004</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.88641816287711395</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.924946510348303</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.86340711683945004</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.889942794570868</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.86340711683945004</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.86340711683945004</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.849944357348423</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.85455946242325698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.86648921266461199</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.88236917836969597</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.92177712048557303</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.86648921266461199</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.88413726270777604</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.86648921266461199</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.86648921266461199</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.85198258610428601</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.861969988717595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.86971140375455303</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.897738164319832</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.92237916046845503</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.86971140375455303</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.888394562853836</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.86971140375455303</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.86971140375455303</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.862825407421415</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.86425122950981903</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.87013168954889297</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.88587026201874897</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.90199448460642295</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.87013168954889297</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.86765446443823802</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.87013168954889297</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.87013168954889297</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.85728985232596999</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.87121774131804497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.879658167553936</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.90927085421968201</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.93960185345492797</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.879658167553936</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.901578024050259</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.879658167553936</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.879658167553936</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.87398669952434405</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.87791153913667797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.882319977584757</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.91083816854805399</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.94187612833461998</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.882319977584757</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.90502767860744704</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.882319977584757</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.882319977584757</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.87661529020394602</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.88091502263131705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.88526197814513796</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.910778028939221</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.94475910046292499</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.88526197814513796</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.90908617407824199</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.88526197814513796</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.88526197814513796</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0.87900798686943105</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.88516489460105996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:J56">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:J56">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
